--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -223,6 +223,15 @@
   </x:si>
   <x:si>
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فايز ايمن فايز ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fayez ayman fayez ebrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210286</x:t>
@@ -500,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1591,7 +1600,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0053258102</x:v>
+        <x:v>45918.9206731134</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1623,7 +1632,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0070038194</x:v>
+        <x:v>45915.0053258102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1655,7 +1664,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0027397338</x:v>
+        <x:v>45915.0070038194</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1687,7 +1696,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0020304745</x:v>
+        <x:v>45915.0027397338</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1719,7 +1728,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6664437847</x:v>
+        <x:v>45915.0020304745</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1751,7 +1760,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6664437847</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1783,7 +1792,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.0029716435</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1815,7 +1824,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45915.0029716435</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.0083484607</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.9041152778</x:v>
+        <x:v>45915.0083484607</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.9041152778</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45906.6832625347</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.0064016204</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45915.0064016204</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2152,6 +2161,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -304,15 +304,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Wael Mohamed Mohamed Hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند ياسر  صلاح حامد حسنين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohaned Yaser Salah Hamed Hasanien</x:t>
   </x:si>
   <x:si>
     <x:t>1210320</x:t>
@@ -509,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +800,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1888,7 +1879,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.0083484607</x:v>
+        <x:v>45906.9041152778</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1920,7 +1911,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.9041152778</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1952,7 +1943,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1984,7 +1975,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2016,7 +2007,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2048,7 +2039,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.6832625347</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2080,7 +2071,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2112,7 +2103,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45915.0064016204</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,7 +2135,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.0064016204</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2161,38 +2152,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Sayed Abdelbadie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل ابراهيم العجمى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waaiel</x:t>
   </x:si>
   <x:si>
     <x:t>1210127</x:t>
@@ -500,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1083,7 +1092,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6656545949</x:v>
+        <x:v>45922.3852359954</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4154829861</x:v>
+        <x:v>45906.6656545949</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1143,9 +1152,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9997916319</x:v>
+        <x:v>45906.4154829861</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1168,16 +1179,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45915.0059199074</x:v>
+        <x:v>45914.9997916319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1205,9 +1214,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.0005248843</x:v>
+        <x:v>45915.0059199074</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1230,16 +1241,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45906.4146822106</x:v>
+        <x:v>45915.0005248843</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1271,7 +1280,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.0039031597</x:v>
+        <x:v>45906.4146822106</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1303,7 +1312,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6649853819</x:v>
+        <x:v>45915.0039031597</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1335,7 +1344,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.415149537</x:v>
+        <x:v>45906.6649853819</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1367,7 +1376,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4198232639</x:v>
+        <x:v>45906.415149537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1399,7 +1408,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45906.4198232639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1431,7 +1440,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.664653125</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1463,7 +1472,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.420693831</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1495,7 +1504,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6653615741</x:v>
+        <x:v>45906.420693831</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1527,7 +1536,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.0001274653</x:v>
+        <x:v>45906.6653615741</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1559,7 +1568,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.0035206019</x:v>
+        <x:v>45915.0001274653</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1591,7 +1600,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.9206731134</x:v>
+        <x:v>45915.0035206019</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1623,7 +1632,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0053258102</x:v>
+        <x:v>45918.9206731134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1655,7 +1664,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0070038194</x:v>
+        <x:v>45915.0053258102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1687,7 +1696,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0027397338</x:v>
+        <x:v>45915.0070038194</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1719,7 +1728,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.0020304745</x:v>
+        <x:v>45915.0027397338</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1751,7 +1760,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6664437847</x:v>
+        <x:v>45915.0020304745</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1783,7 +1792,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6664437847</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1815,7 +1824,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.0029716435</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45915.0029716435</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.9041152778</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.9041152778</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45906.6832625347</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.0064016204</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45915.0064016204</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2152,6 +2161,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Ahmed Mohamed Sayed Abdelbadie</x:t>
   </x:si>
   <x:si>
+    <x:t>1240013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبد الرحيم محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed mohamed abd elrehim</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250166</x:t>
   </x:si>
   <x:si>
@@ -135,6 +144,15 @@
     <x:t>خديجه احمد عبدالحميد احمد سليمان</x:t>
   </x:si>
   <x:si>
+    <x:t>1240306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا ايمن وفائي محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Ayman Wafaey</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210224</x:t>
   </x:si>
   <x:si>
@@ -216,6 +234,15 @@
     <x:t>abdelrahman hany ahmed raafat</x:t>
   </x:si>
   <x:si>
+    <x:t>1240336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمار احمد سالم امين حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ammar ahmed salem amin hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240106</x:t>
   </x:si>
   <x:si>
@@ -259,6 +286,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed hatem fawzy Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حاتم محمد سراج الدين حسن شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hatem Mohamed Serag Eldin Hassan Shaheen</x:t>
   </x:si>
   <x:si>
     <x:t>1220079</x:t>
@@ -509,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +845,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1092,7 +1128,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45922.3852359954</x:v>
+        <x:v>45927.4169879282</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1124,7 +1160,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6656545949</x:v>
+        <x:v>45927.5280487616</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1156,7 +1192,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4154829861</x:v>
+        <x:v>45906.6656545949</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1184,9 +1220,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9997916319</x:v>
+        <x:v>45906.4154829861</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1209,16 +1247,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45915.0059199074</x:v>
+        <x:v>45914.9997916319</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1246,9 +1282,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.0005248843</x:v>
+        <x:v>45915.0059199074</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1271,16 +1309,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45906.4146822106</x:v>
+        <x:v>45915.0005248843</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1312,7 +1348,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.0039031597</x:v>
+        <x:v>45927.4186082176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1344,7 +1380,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649853819</x:v>
+        <x:v>45906.4146822106</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1376,7 +1412,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.415149537</x:v>
+        <x:v>45915.0039031597</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1408,7 +1444,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4198232639</x:v>
+        <x:v>45906.6649853819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1440,7 +1476,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45906.415149537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1472,7 +1508,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.664653125</x:v>
+        <x:v>45906.4198232639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1504,7 +1540,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.420693831</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1536,7 +1572,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6653615741</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1568,7 +1604,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.0001274653</x:v>
+        <x:v>45906.420693831</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1600,7 +1636,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0035206019</x:v>
+        <x:v>45906.6653615741</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1632,7 +1668,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.9206731134</x:v>
+        <x:v>45927.4424047801</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1664,7 +1700,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0053258102</x:v>
+        <x:v>45915.0001274653</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1696,7 +1732,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0070038194</x:v>
+        <x:v>45915.0035206019</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1728,7 +1764,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.0027397338</x:v>
+        <x:v>45918.9206731134</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1760,7 +1796,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.0020304745</x:v>
+        <x:v>45915.0053258102</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1792,7 +1828,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6664437847</x:v>
+        <x:v>45915.0070038194</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1824,7 +1860,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45927.5491072917</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1856,7 +1892,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.0029716435</x:v>
+        <x:v>45915.0027397338</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1888,7 +1924,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45915.0020304745</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1920,7 +1956,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.9041152778</x:v>
+        <x:v>45906.6664437847</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1952,7 +1988,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1984,7 +2020,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45915.0029716435</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2016,7 +2052,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2048,7 +2084,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.9041152778</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2080,7 +2116,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2112,7 +2148,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,7 +2180,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.0064016204</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2176,7 +2212,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2229,134 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45906.6832625347</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45906.4148071759</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45915.0064016204</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -1700,7 +1700,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0001274653</x:v>
+        <x:v>45927.8856927894</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -1956,7 +1956,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6664437847</x:v>
+        <x:v>45929.573840162</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -349,6 +349,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Wael Mohamed Mohamed Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مى عبد الحكيم ابراهيم احمد منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Abdelhakim Ibrahim Ahmed Mansour</x:t>
   </x:si>
   <x:si>
     <x:t>1210320</x:t>
@@ -545,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -845,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2084,7 +2093,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.9041152778</x:v>
+        <x:v>45933.6025679745</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2116,7 +2125,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.9041152778</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2148,7 +2157,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2180,7 +2189,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2212,7 +2221,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2244,7 +2253,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45906.6832625347</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2308,7 +2317,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.0064016204</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45915.0064016204</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2357,6 +2366,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -285,7 +285,7 @@
     <x:t>محمد حاتم فوزى محمود المتناوى</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed hatem fawzy Mahmoud</x:t>
+    <x:t>Mohamed Hatem Fawzy Mahmoud El-Metnawy</x:t>
   </x:si>
   <x:si>
     <x:t>1230101</x:t>
@@ -339,7 +339,7 @@
     <x:t>مروان محمد محمد رمزي عبدالرحمن</x:t>
   </x:si>
   <x:si>
-    <x:t>Marwan mohamed mohamed ramzy</x:t>
+    <x:t>Marwan Mohamed Mohamed Ramzy Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1210305</x:t>

--- a/downloaded_files/GENS002_Lecture-35027.xlsx
+++ b/downloaded_files/GENS002_Lecture-35027.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,6 +127,9 @@
   </x:si>
   <x:si>
     <x:t>اسراء عبدالحميد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esraa Abdelhameed Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240292</x:t>
@@ -1261,7 +1264,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
         <x:v>45914.9997916319</x:v>
       </x:c>
@@ -1286,13 +1291,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45915.0059199074</x:v>
@@ -1318,10 +1323,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
@@ -1348,13 +1353,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45927.4186082176</x:v>
@@ -1380,13 +1385,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45906.4146822106</x:v>
@@ -1412,13 +1417,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45915.0039031597</x:v>
@@ -1444,13 +1449,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45906.6649853819</x:v>
@@ -1476,13 +1481,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45906.415149537</x:v>
@@ -1508,13 +1513,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45906.4198232639</x:v>
@@ -1540,13 +1545,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45906.6651263079</x:v>
@@ -1572,13 +1577,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45906.664653125</x:v>
@@ -1604,13 +1609,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45906.420693831</x:v>
@@ -1636,13 +1641,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45906.6653615741</x:v>
@@ -1668,13 +1673,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45927.4424047801</x:v>
@@ -1700,13 +1705,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45927.8856927894</x:v>
@@ -1732,13 +1737,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45915.0035206019</x:v>
@@ -1764,13 +1769,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45918.9206731134</x:v>
@@ -1796,13 +1801,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45915.0053258102</x:v>
@@ -1828,13 +1833,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45915.0070038194</x:v>
@@ -1860,13 +1865,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45927.5491072917</x:v>
@@ -1892,13 +1897,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45915.0027397338</x:v>
@@ -1924,13 +1929,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45915.0020304745</x:v>
@@ -1956,13 +1961,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45929.573840162</x:v>
@@ -1988,13 +1993,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45906.6852452546</x:v>
@@ -2020,13 +2025,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45915.0029716435</x:v>
@@ -2052,13 +2057,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45906.6648953356</x:v>
@@ -2084,13 +2089,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45933.6025679745</x:v>
@@ -2116,13 +2121,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45906.9041152778</x:v>
@@ -2148,13 +2153,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45906.6736037847</x:v>
@@ -2180,13 +2185,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45906.4146939815</x:v>
@@ -2212,13 +2217,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45906.6647642014</x:v>
@@ -2244,13 +2249,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45906.4145223727</x:v>
@@ -2276,13 +2281,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45906.6832625347</x:v>
@@ -2308,13 +2313,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45906.4148071759</x:v>
@@ -2340,13 +2345,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45915.0064016204</x:v>
@@ -2372,13 +2377,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45906.6649261921</x:v>
